--- a/reports/Cartera/cartera_back.xlsx
+++ b/reports/Cartera/cartera_back.xlsx
@@ -1,37 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INNOVACION\Documents\J3\100.- cursos\Quant_udemy\programas\Projects\999_Automatic\reports\Cartera\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0277E5AC-E7AB-48EE-904F-1F2CA696DAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>buyPrice</t>
+  </si>
+  <si>
+    <t>buyDay</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>sellDay</t>
+  </si>
+  <si>
+    <t>sellPrice</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>AQUA</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>EBAY</t>
+  </si>
+  <si>
+    <t>MDLZ</t>
+  </si>
+  <si>
+    <t>RRR</t>
+  </si>
+  <si>
+    <t>SEAS</t>
+  </si>
+  <si>
+    <t>TNET</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +108,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,64 +433,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>asset</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>qty</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>buyPrice</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>buyDay</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SL</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sellDay</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>sellPrice</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reason</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>48.180000305175781</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45043.098822546293</v>
+      </c>
+      <c r="F2">
+        <v>1.0160907178709031</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45048.465717361112</v>
+      </c>
+      <c r="I5">
+        <v>49.759998321533203</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45048.46576561343</v>
+      </c>
+      <c r="I6">
+        <v>102.0500030517578</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2">
+        <v>45049.830890740741</v>
+      </c>
+      <c r="I18">
+        <v>104.8249969482422</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2">
+        <v>45050.655756212604</v>
+      </c>
+      <c r="I19">
+        <v>47.009998321533203</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Cartera/cartera_back.xlsx
+++ b/reports/Cartera/cartera_back.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjjimenez\Documents\J3\100.- cursos\Quant_udemy\programas\Projects\999_Automatic\reports\Cartera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97B6636-67A7-4628-A213-9582F640FBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3C577E-AAD0-40CE-9F10-6C43B1627E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>asset</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>Unnamed: 12</t>
+  </si>
+  <si>
+    <t>MRNA</t>
+  </si>
+  <si>
+    <t>CRWD</t>
+  </si>
+  <si>
+    <t>PCAR</t>
+  </si>
+  <si>
+    <t>PDD</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -63,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -77,6 +95,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +138,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,13 +441,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="A2:Q25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -469,32 +491,292 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>153.19999694824219</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45441.55804059028</v>
+      </c>
+      <c r="F2">
+        <v>7.6189113627559646</v>
+      </c>
+      <c r="G2">
+        <v>9.4585016525611376</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>308.69000244140619</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45447.378115381936</v>
+      </c>
+      <c r="F3">
+        <v>13.1761812905259</v>
+      </c>
+      <c r="G3">
+        <v>7.8948954233003938</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>105.4899978637695</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45447.389113576392</v>
+      </c>
+      <c r="F4">
+        <v>2.2590814905207548</v>
+      </c>
+      <c r="G4">
+        <v>1.3568554432024289</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>146.91999816894531</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45447.390533715283</v>
+      </c>
+      <c r="F5">
+        <v>6.1932784469371551</v>
+      </c>
+      <c r="G5">
+        <v>3.3796861515799619</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>205.9100036621094</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45447.3910903125</v>
+      </c>
+      <c r="F6">
+        <v>5.8841812080373304</v>
+      </c>
+      <c r="G6">
+        <v>4.9603604356196982</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="E7" s="2"/>
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>308.69000244140619</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45447.616367835653</v>
+      </c>
+      <c r="F7">
+        <v>13.1761812905259</v>
+      </c>
+      <c r="G7">
+        <v>7.8948954233003938</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>105.4899978637695</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45447.627613564808</v>
+      </c>
+      <c r="F8">
+        <v>2.2590814905207548</v>
+      </c>
+      <c r="G8">
+        <v>1.3568554432024289</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>146.91999816894531</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45447.629020844914</v>
+      </c>
+      <c r="F9">
+        <v>6.1932784469371551</v>
+      </c>
+      <c r="G9">
+        <v>3.3796861515799619</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>205.9100036621094</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45447.629587748059</v>
+      </c>
+      <c r="F10">
+        <v>5.8841812080373304</v>
+      </c>
+      <c r="G10">
+        <v>4.9603604356196982</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/Cartera/cartera_back.xlsx
+++ b/reports/Cartera/cartera_back.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,23 +505,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>PDD</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>153.1999969482422</v>
+        <v>141.6549987792969</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45441.55804059028</v>
+        <v>45464.82129440972</v>
       </c>
       <c r="F2" t="n">
-        <v>7.618911362755965</v>
+        <v>5.03069572309861</v>
       </c>
       <c r="G2" t="n">
-        <v>9.458501652561138</v>
+        <v>3.704970858676148</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -542,23 +542,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>308.6900024414062</v>
+        <v>212.6399993896484</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45447.37811538194</v>
+        <v>45464.82184797453</v>
       </c>
       <c r="F3" t="n">
-        <v>13.1761812905259</v>
+        <v>6.528290750091786</v>
       </c>
       <c r="G3" t="n">
-        <v>7.894895423300394</v>
+        <v>2.171235283353105</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -579,23 +579,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PCAR</t>
+          <t>PDD</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>105.4899978637695</v>
+        <v>143.8600006103516</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45447.38911357639</v>
+        <v>45465.75769643518</v>
       </c>
       <c r="F4" t="n">
-        <v>2.259081490520755</v>
+        <v>5.033195303482298</v>
       </c>
       <c r="G4" t="n">
-        <v>1.356855443202429</v>
+        <v>3.780326831085888</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -616,23 +616,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>146.9199981689453</v>
+        <v>212.5299987792969</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45447.39053371528</v>
+        <v>45465.75823944445</v>
       </c>
       <c r="F5" t="n">
-        <v>6.193278446937155</v>
+        <v>6.528290750091786</v>
       </c>
       <c r="G5" t="n">
-        <v>3.379686151579962</v>
+        <v>2.172035276750948</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -653,23 +653,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>PDD</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>205.9100036621094</v>
+        <v>143.8600006103516</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45447.3910903125</v>
+        <v>45466.94777715277</v>
       </c>
       <c r="F6" t="n">
-        <v>5.88418120803733</v>
+        <v>5.033195303478307</v>
       </c>
       <c r="G6" t="n">
-        <v>4.960360435619698</v>
+        <v>3.771065294103346</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -690,23 +690,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CRWD</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>308.6900024414062</v>
+        <v>212.5299987792969</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45447.61636783565</v>
+        <v>45466.94833241898</v>
       </c>
       <c r="F7" t="n">
-        <v>13.1761812905259</v>
+        <v>6.528290750135235</v>
       </c>
       <c r="G7" t="n">
-        <v>7.894895423300394</v>
+        <v>2.178222605551147</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -727,23 +727,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PCAR</t>
+          <t>PDD</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>105.4899978637695</v>
+        <v>143.8600006103516</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45447.62761356481</v>
+        <v>45467.34600642361</v>
       </c>
       <c r="F8" t="n">
-        <v>2.259081490520755</v>
+        <v>5.033195303478307</v>
       </c>
       <c r="G8" t="n">
-        <v>1.356855443202429</v>
+        <v>3.771065294103346</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -768,19 +768,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>146.9199981689453</v>
+        <v>143.8600006103516</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45447.62902084491</v>
+        <v>45467.35296373843</v>
       </c>
       <c r="F9" t="n">
-        <v>6.193278446937155</v>
+        <v>5.033195303478307</v>
       </c>
       <c r="G9" t="n">
-        <v>3.379686151579962</v>
+        <v>3.771065294103346</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -801,23 +801,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>PDD</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
-        <v>205.9100036621094</v>
+        <v>143.8600006103516</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45447.62958774305</v>
+        <v>45467.35690290509</v>
       </c>
       <c r="F10" t="n">
-        <v>5.88418120803733</v>
+        <v>5.033195303478307</v>
       </c>
       <c r="G10" t="n">
-        <v>4.960360435619698</v>
+        <v>3.771065294103346</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -836,34 +836,34 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>33</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PDD</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>33</v>
+        <v>143.8600006103516</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45467.37830570602</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>5.033195303478307</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>3.771065294103346</v>
       </c>
       <c r="H11" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>55</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -873,34 +873,34 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>33</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>33</v>
+        <v>212.5299987792969</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45467.37881813657</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>6.528290750135235</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>2.178222605551147</v>
       </c>
       <c r="H12" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>55</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -912,23 +912,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>PDD</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
-        <v>120.8880004882812</v>
+        <v>143.8600006103516</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45452.96000131944</v>
+        <v>45467.56117321759</v>
       </c>
       <c r="F13" t="n">
-        <v>4.468767144249796</v>
+        <v>5.033195303478307</v>
       </c>
       <c r="G13" t="n">
-        <v>4.296619963448589</v>
+        <v>3.771065294103346</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -936,10 +936,8 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J13" t="n">
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -951,23 +949,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>120.8880004882812</v>
+        <v>212.5299987792969</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45452.97553582176</v>
+        <v>45467.56169704861</v>
       </c>
       <c r="F14" t="n">
-        <v>4.468767144249796</v>
+        <v>6.528290750135235</v>
       </c>
       <c r="G14" t="n">
-        <v>4.296619963448589</v>
+        <v>2.178222605551147</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -975,10 +973,8 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J14" t="n">
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -990,23 +986,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>128.8500061035156</v>
+        <v>200.8399963378906</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45456.74417122685</v>
+        <v>45468.43782847222</v>
       </c>
       <c r="F15" t="n">
-        <v>4.626010707728497</v>
+        <v>6.888397158687014</v>
       </c>
       <c r="G15" t="n">
-        <v>4.294144082063672</v>
+        <v>2.549858238520099</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1014,10 +1010,8 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J15" t="n">
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1029,23 +1023,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>130.8849945068359</v>
+        <v>200.8399963378906</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45460.75077077546</v>
+        <v>45468.58786767361</v>
       </c>
       <c r="F16" t="n">
-        <v>4.593371018341774</v>
+        <v>6.888397158687014</v>
       </c>
       <c r="G16" t="n">
-        <v>1.693709524410907</v>
+        <v>2.549858238520099</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1053,10 +1047,8 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J16" t="n">
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1066,34 +1058,34 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>33</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>33</v>
+        <v>386.760009765625</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45469.54971871528</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>13.36148039823626</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>5.176808771370875</v>
       </c>
       <c r="H17" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>55</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1103,34 +1095,34 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>33</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PDD</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>33</v>
+        <v>140</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45469.56179633102</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>4.882809082632661</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>4.285913319079282</v>
       </c>
       <c r="H18" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>55</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -1140,34 +1132,34 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>33</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>33</v>
+        <v>214.1000061035156</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45471.54578564815</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>4.658793464005464</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>4.378314789813575</v>
       </c>
       <c r="H19" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>55</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1177,34 +1169,34 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>33</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>33</v>
+        <v>34.41999816894531</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45471.54811197917</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>0.7503533357376345</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>0.7749679230966615</v>
       </c>
       <c r="H20" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>55</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1214,34 +1206,34 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>33</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>33</v>
+        <v>519.5599975585938</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45471.56008827547</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>11.26307920276029</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>6.902701582116126</v>
       </c>
       <c r="H21" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>55</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1251,34 +1243,34 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>33</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PDD</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>33</v>
+        <v>131.9400024414062</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45471.56490291667</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>4.959811485353609</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>2.668444760236003</v>
       </c>
       <c r="H22" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>55</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1288,34 +1280,34 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>33</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="n">
-        <v>33</v>
+        <v>195.1499938964844</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45471.56543763889</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>6.569219373694525</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>3.23863279866538</v>
       </c>
       <c r="H23" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>55</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1325,34 +1317,34 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>33</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="n">
-        <v>33</v>
+        <v>35.16999816894531</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45474.5479183912</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>0.7584563190093763</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>1.349246785706326</v>
       </c>
       <c r="H24" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>55</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -1362,34 +1354,34 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>33</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CRWD</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>33</v>
+        <v>383.1900024414062</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45474.55106650463</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>12.83472824258779</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>5.065184734176621</v>
       </c>
       <c r="H25" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>55</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1399,34 +1391,34 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>33</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" t="n">
-        <v>33</v>
+        <v>129.6900024414062</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45474.55181116898</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>3.730569083986314</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>4.410134755737825</v>
       </c>
       <c r="H26" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>55</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -1436,34 +1428,34 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>33</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ISRG</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" t="n">
-        <v>33</v>
+        <v>444.8500061035156</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45474.55657271991</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>8.355130196018303</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>4.571295530080594</v>
       </c>
       <c r="H27" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>55</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1475,23 +1467,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>PDD</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>130.9799957275391</v>
+        <v>132.9499969482422</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45461.54253752315</v>
+        <v>45474.56487663194</v>
       </c>
       <c r="F28" t="n">
-        <v>4.593376740424485</v>
+        <v>4.917323191227231</v>
       </c>
       <c r="G28" t="n">
-        <v>1.69720754035651</v>
+        <v>1.858613053038274</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1499,10 +1491,8 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="J28" t="n">
+        <v>0</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -1512,34 +1502,34 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>33</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ADSK</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" t="n">
-        <v>33</v>
+        <v>244.3000030517578</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45474.72672385417</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>5.943695872629078</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>12.19643956477537</v>
       </c>
       <c r="H29" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>55</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
@@ -1549,34 +1539,34 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>33</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" t="n">
-        <v>33</v>
+        <v>202</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45474.73614005787</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>3.865011669717872</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>2.394053209421357</v>
       </c>
       <c r="H30" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>55</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -1586,34 +1576,34 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>33</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>33</v>
+        <v>239.2799987792969</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45474.74721453703</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>4.343951722117014</v>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>2.556605275586093</v>
       </c>
       <c r="H31" t="n">
-        <v>4444</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -1623,149 +1613,42 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>33</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>WDAY</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E32" t="n">
-        <v>33</v>
+        <v>224.0850067138672</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45474.76396243844</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>5.330507274926898</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
-      </c>
-      <c r="H32" t="n">
-        <v>4444</v>
+        <v>2.341026723338082</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I32" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>tp</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>33</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" t="n">
-        <v>33</v>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
-      </c>
-      <c r="G33" t="n">
-        <v>6</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4444</v>
-      </c>
-      <c r="I33" t="n">
-        <v>55</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" t="n">
-        <v>33</v>
-      </c>
-      <c r="F34" t="n">
-        <v>4</v>
-      </c>
-      <c r="G34" t="n">
-        <v>6</v>
-      </c>
-      <c r="H34" t="n">
-        <v>4444</v>
-      </c>
-      <c r="I34" t="n">
-        <v>55</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>33</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" t="n">
-        <v>33</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
-      </c>
-      <c r="G35" t="n">
-        <v>6</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4444</v>
-      </c>
-      <c r="I35" t="n">
-        <v>55</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
